--- a/doc/Burndown Charts/Sprint 1 Burndown.xlsx
+++ b/doc/Burndown Charts/Sprint 1 Burndown.xlsx
@@ -431,30 +431,30 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114742016"/>
-        <c:axId val="114743936"/>
+        <c:axId val="116235264"/>
+        <c:axId val="204023296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114742016"/>
+        <c:axId val="116235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,14 +530,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114743936"/>
+        <c:crossAx val="204023296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114743936"/>
+        <c:axId val="204023296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -628,7 +628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114742016"/>
+        <c:crossAx val="116235264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -702,7 +702,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1780,7 +1780,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1840,7 +1842,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
@@ -1878,7 +1882,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="7"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="8" t="s">
@@ -1959,23 +1965,23 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>K17-SUM(L3:L14)-(SUM(B3:B14)-SUM(C3:L14))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
